--- a/biology/Botanique/Justin_Delpla/Justin_Delpla.xlsx
+++ b/biology/Botanique/Justin_Delpla/Justin_Delpla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Justin Delpla (1765 ou 1766, Le Bosc, Ariège + 11 janvier 1834, Camblanes, Gironde), négociant, négrier et armateur à Bordeaux, viticulteur propriétaire au château de Latour-Camblanes, dans l’Entre-deux-Mers (Gironde).
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Établi à Bordeaux comme négociant, rue de la Rousselle, au début de la Révolution, Justin Delpla devient bientôt armateur en course, prenant pour cibles des navires de commerce et les bateaux négriers britanniques. Il possède notamment le corsaire L'Ariège (qui en est déjà à sa 6e croisière en 1801, qui s'achève avec la paix d'Amiens. Son capitaine est alors Antoine Armaingaud). Delpla s’enrichit rapidement, au fil des prises.
 Début 1793, son actif net est estimé à seulement 500 000 francs, mais dès l’an III (1794), il achète une maison dans sa rue pour 100 000 francs, première de nombreuses acquisitions immobilières (1800 : château et domaine viticole de Latour-Camblanes - 50 hectares, pour 158 000 francs -, deux îles sur la Garonne, une seconde maison à Bordeaux - 16 rue des Puits Descazeaux, pour 70 000 francs - ; 1801 : un hôtel particulier, 30 cours du Chapeau-Rouge - pour 115 000 francs - ; 1806 : le château et domaine de Latresne, voisin de Latour-Camblanes, etc.).
@@ -550,7 +564,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fils de Georges Delpla (vers 1730 ou 40, Saurat du Boscq + avant 1793), chirurgien au Boscq, près de Tarascon (Ariège), et de Marie Rumeau (+ après 1793, à Boscq), mariés à Alzen (Ariège), le 23 février 1762.
 Marié le 18 février 1793 (contrat du 17, 29 pluviose an II ou Ier ?, Darrieux aîné, notaire), à Bordeaux, à Catherine Despax (27 décembre 1761, Bordeaux + 11 avril 1834, Bordeaux), fille de Marc Despax, négociant, et de Pétronille Cabanac, habitants Bordeaux.
